--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rspo2-Lgr6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rspo2-Lgr6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,13 +79,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Rspo2</t>
+  </si>
+  <si>
+    <t>Lgr6</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Rspo2</t>
-  </si>
-  <si>
-    <t>Lgr6</t>
   </si>
 </sst>
 </file>
@@ -443,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +516,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,10 +537,10 @@
         <v>4.580553</v>
       </c>
       <c r="I2">
-        <v>0.9910541119453039</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9910541119453039</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -549,28 +549,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.05147733333333333</v>
+        <v>0.05147733333333334</v>
       </c>
       <c r="N2">
         <v>0.154432</v>
       </c>
       <c r="O2">
-        <v>0.6968198390066058</v>
+        <v>0.887188413789934</v>
       </c>
       <c r="P2">
-        <v>0.6968198390066057</v>
+        <v>0.8871884137899338</v>
       </c>
       <c r="Q2">
-        <v>0.07859821787733332</v>
+        <v>0.07859821787733334</v>
       </c>
       <c r="R2">
-        <v>0.707383960896</v>
+        <v>0.7073839608960001</v>
       </c>
       <c r="S2">
-        <v>0.6905861667325613</v>
+        <v>0.887188413789934</v>
       </c>
       <c r="T2">
-        <v>0.6905861667325612</v>
+        <v>0.8871884137899338</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,13 +578,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,164 +599,40 @@
         <v>4.580553</v>
       </c>
       <c r="I3">
-        <v>0.9910541119453039</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9910541119453039</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.02239733333333334</v>
+        <v>0.006545666666666668</v>
       </c>
       <c r="N3">
-        <v>0.067192</v>
+        <v>0.019637</v>
       </c>
       <c r="O3">
-        <v>0.3031801609933943</v>
+        <v>0.1128115862100661</v>
       </c>
       <c r="P3">
-        <v>0.3031801609933942</v>
+        <v>0.1128115862100661</v>
       </c>
       <c r="Q3">
-        <v>0.03419739079733333</v>
+        <v>0.009994257695666668</v>
       </c>
       <c r="R3">
-        <v>0.307776517176</v>
+        <v>0.08994831926100001</v>
       </c>
       <c r="S3">
-        <v>0.3004679452127426</v>
+        <v>0.1128115862100661</v>
       </c>
       <c r="T3">
-        <v>0.3004679452127426</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G4">
-        <v>0.01378233333333333</v>
-      </c>
-      <c r="H4">
-        <v>0.041347</v>
-      </c>
-      <c r="I4">
-        <v>0.008945888054696122</v>
-      </c>
-      <c r="J4">
-        <v>0.00894588805469612</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M4">
-        <v>0.05147733333333333</v>
-      </c>
-      <c r="N4">
-        <v>0.154432</v>
-      </c>
-      <c r="O4">
-        <v>0.6968198390066058</v>
-      </c>
-      <c r="P4">
-        <v>0.6968198390066057</v>
-      </c>
-      <c r="Q4">
-        <v>0.0007094777671111111</v>
-      </c>
-      <c r="R4">
-        <v>0.006385299904</v>
-      </c>
-      <c r="S4">
-        <v>0.006233672274044469</v>
-      </c>
-      <c r="T4">
-        <v>0.006233672274044468</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.01378233333333333</v>
-      </c>
-      <c r="H5">
-        <v>0.041347</v>
-      </c>
-      <c r="I5">
-        <v>0.008945888054696122</v>
-      </c>
-      <c r="J5">
-        <v>0.00894588805469612</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M5">
-        <v>0.02239733333333334</v>
-      </c>
-      <c r="N5">
-        <v>0.067192</v>
-      </c>
-      <c r="O5">
-        <v>0.3031801609933943</v>
-      </c>
-      <c r="P5">
-        <v>0.3031801609933942</v>
-      </c>
-      <c r="Q5">
-        <v>0.0003086875137777778</v>
-      </c>
-      <c r="R5">
-        <v>0.002778187624</v>
-      </c>
-      <c r="S5">
-        <v>0.002712215780651653</v>
-      </c>
-      <c r="T5">
-        <v>0.002712215780651652</v>
+        <v>0.1128115862100661</v>
       </c>
     </row>
   </sheetData>
